--- a/va_facility_data_2025-02-20/Vero Beach VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Vero%20Beach%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Vero Beach VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Vero%20Beach%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf85e60f20f3c45779f816f5b567a4440"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra69aad7d185d453f9fff14fdd5f552cf"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R83f2e426301c40ef9d1eb6a45676f96a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rbf3e894bf30c4bb4ab8ac4f95db7bd8c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5b9a5fee51b7487b9c4e03a731937074"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9d44ef4403b64283a7cb49cdd34d5566"/>
   </x:sheets>
 </x:workbook>
 </file>
